--- a/Report/Bill of Materials_20170614.xlsx
+++ b/Report/Bill of Materials_20170614.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="6852" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Sr No.</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Bill of Material</t>
+  </si>
+  <si>
+    <t>http://it.rs-online.com/web/p/cuscinetti-a-sfera/6125745/</t>
+  </si>
+  <si>
+    <t>NMB Metal Radial Ball Bearing DDL-730ZZHA1P25LY121 3mm I.D, 7mm O.D</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,6 +249,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -277,13 +309,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -291,8 +323,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,24 +602,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.41796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7890625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.41796875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.89453125" style="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
@@ -597,7 +629,10 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -638,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -652,14 +687,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E5:E18" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E19" si="0">C5*D5</f>
         <v>132</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -680,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -701,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -722,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -743,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -764,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -785,7 +820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -806,7 +841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -827,7 +862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -848,7 +883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -869,7 +904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -890,7 +925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -911,7 +946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -932,20 +967,40 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10"/>
-      <c r="C19" s="12" t="s">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>89.425000000000011</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="C20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11">
-        <f>SUM(E4:E18)</f>
-        <v>952.90999999999985</v>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10">
+        <f>SUM(E4:E19)</f>
+        <v>1042.3349999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
@@ -963,8 +1018,9 @@
     <hyperlink ref="F15" r:id="rId12"/>
     <hyperlink ref="F17" r:id="rId13"/>
     <hyperlink ref="F18" r:id="rId14"/>
+    <hyperlink ref="F19" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId16"/>
 </worksheet>
 </file>